--- a/libs/ui/src/lib/assets/templates/import-organizations-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-organizations-template-admin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Full Denomination</t>
   </si>
@@ -33,10 +33,6 @@
   <si>
     <t xml:space="preserve">Admin email
 (will create a new account)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin name 
-( FirstName, LastName)</t>
   </si>
   <si>
     <t xml:space="preserve">Catalog Access 
@@ -166,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -195,13 +191,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -280,20 +269,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,10 +363,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,16 +376,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="29.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="29.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="40.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="29.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="16" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="24" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="29.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="29.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="15" style="0" width="29.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="23" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="80.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,56 +398,53 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AY1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/libs/ui/src/lib/assets/templates/import-organizations-template-admin.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-organizations-template-admin.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contracts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Organizations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,15 +20,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Full Denomination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Denomination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cascade 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact@cascade8.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://firebasestorage.googleapis.com/v0/b/blockframes-vincent.appspot.com/o/movies%2FAZNAVOUR%2FAznavourByCharles_poster.jpg?alt=media&amp;token=3e802a1c-ea32-4533-8654-c9f3b078c621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 fake street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdelorme@cascade8.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard, marketplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Général information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headquarters Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo
+(image URL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscal Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number</t>
   </si>
   <si>
     <t xml:space="preserve">Admin email
@@ -41,118 +123,6 @@
   <si>
     <t xml:space="preserve">Festival Access 
 ( example : dashboard, marketplace)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Film Code 5
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">internal</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> reference, same as other excel import)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution IDs 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global price 5
-(amount, currency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees label 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees value 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees currency 5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Film Code 6
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">internal</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> reference, same as other excel import)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution IDs 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global price 6
-(amount, currency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commission 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees label 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees value 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fees currency 6</t>
   </si>
 </sst>
 </file>
@@ -162,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -194,15 +164,36 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,24 +202,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFCD4D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF21409A"/>
+        <bgColor rgb="FF0B5394"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF512480"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD3C1"/>
+        <bgColor rgb="FFFCD4D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB94D"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF65C295"/>
+        <bgColor rgb="FF70AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor rgb="FF003366"/>
+        <bgColor rgb="FF21409A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF826AAF"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFFCD3C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFDB94D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF65C295"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -237,10 +282,52 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -269,20 +356,84 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,12 +466,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFCD4D1"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FF512480"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0B5394"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -336,22 +487,22 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF65C295"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFDB94D"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF826AAF"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF0B5394"/>
       <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF21409A"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -363,10 +514,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AY1"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="A1:F1"/>
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -385,69 +536,296 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="80.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="F6" s="6" t="n">
+        <v>1243546789</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="I6" s="6" t="n">
+        <v>69001</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="L6" s="6" t="n">
+        <v>836656565</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="N9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="N9:O9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="contact@cascade8.com"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/blockframes-vincent.appspot.com/o/movies%2FAZNAVOUR%2FAznavourByCharles_poster.jpg?alt=media&amp;token=3e802a1c-ea32-4533-8654-c9f3b078c621"/>
+    <hyperlink ref="M6" r:id="rId3" display="bdelorme@cascade8.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
